--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Sema4d-Plxnb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Sema4d-Plxnb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,22 +537,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.1349983333333333</v>
+        <v>2.013924666666667</v>
       </c>
       <c r="H2">
-        <v>0.404995</v>
+        <v>6.041774</v>
       </c>
       <c r="I2">
-        <v>0.0004324871779904459</v>
+        <v>0.007485295459218955</v>
       </c>
       <c r="J2">
-        <v>0.0004324871779904459</v>
+        <v>0.007485295459218957</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.5527786666666666</v>
+        <v>1.257860666666667</v>
       </c>
       <c r="N2">
-        <v>1.658336</v>
+        <v>3.773582</v>
       </c>
       <c r="O2">
-        <v>0.09524664485857044</v>
+        <v>0.2681199229911799</v>
       </c>
       <c r="P2">
-        <v>0.09524664485857044</v>
+        <v>0.2681199229911799</v>
       </c>
       <c r="Q2">
-        <v>0.07462419870222221</v>
+        <v>2.533236623829778</v>
       </c>
       <c r="R2">
-        <v>0.67161778832</v>
+        <v>22.799129614468</v>
       </c>
       <c r="S2">
-        <v>4.119295264794134E-05</v>
+        <v>0.002006956842092015</v>
       </c>
       <c r="T2">
-        <v>4.119295264794134E-05</v>
+        <v>0.002006956842092015</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.1349983333333333</v>
+        <v>2.013924666666667</v>
       </c>
       <c r="H3">
-        <v>0.404995</v>
+        <v>6.041774</v>
       </c>
       <c r="I3">
-        <v>0.0004324871779904459</v>
+        <v>0.007485295459218955</v>
       </c>
       <c r="J3">
-        <v>0.0004324871779904459</v>
+        <v>0.007485295459218957</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>1.528534</v>
       </c>
       <c r="O3">
-        <v>0.08779145785428895</v>
+        <v>0.1086051444938523</v>
       </c>
       <c r="P3">
-        <v>0.08779145785428895</v>
+        <v>0.1086051444938523</v>
       </c>
       <c r="Q3">
-        <v>0.06878318081444444</v>
+        <v>1.026117442146222</v>
       </c>
       <c r="R3">
-        <v>0.61904862733</v>
+        <v>9.235056979316001</v>
       </c>
       <c r="S3">
-        <v>3.796867985906859E-05</v>
+        <v>0.0008129415949276513</v>
       </c>
       <c r="T3">
-        <v>3.796867985906859E-05</v>
+        <v>0.0008129415949276514</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,87 +658,87 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.1349983333333333</v>
+        <v>2.013924666666667</v>
       </c>
       <c r="H4">
-        <v>0.404995</v>
+        <v>6.041774</v>
       </c>
       <c r="I4">
-        <v>0.0004324871779904459</v>
+        <v>0.007485295459218955</v>
       </c>
       <c r="J4">
-        <v>0.0004324871779904459</v>
+        <v>0.007485295459218957</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.02088</v>
+        <v>2.924038666666667</v>
       </c>
       <c r="N4">
-        <v>0.06264</v>
+        <v>8.772116</v>
       </c>
       <c r="O4">
-        <v>0.00359773280803218</v>
+        <v>0.6232749325149678</v>
       </c>
       <c r="P4">
-        <v>0.00359773280803218</v>
+        <v>0.6232749325149678</v>
       </c>
       <c r="Q4">
-        <v>0.0028187652</v>
+        <v>5.888793597087111</v>
       </c>
       <c r="R4">
-        <v>0.0253688868</v>
+        <v>52.999142373784</v>
       </c>
       <c r="S4">
-        <v>1.55597330930948E-06</v>
+        <v>0.004665397022199289</v>
       </c>
       <c r="T4">
-        <v>1.55597330930948E-06</v>
+        <v>0.00466539702219929</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.1349983333333333</v>
+        <v>1.448602</v>
       </c>
       <c r="H5">
-        <v>0.404995</v>
+        <v>4.345806000000001</v>
       </c>
       <c r="I5">
-        <v>0.0004324871779904459</v>
+        <v>0.005384120941704621</v>
       </c>
       <c r="J5">
-        <v>0.0004324871779904459</v>
+        <v>0.005384120941704621</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,33 +747,33 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.651264</v>
+        <v>1.257860666666667</v>
       </c>
       <c r="N5">
-        <v>13.953792</v>
+        <v>3.773582</v>
       </c>
       <c r="O5">
-        <v>0.8014370254606795</v>
+        <v>0.2681199229911799</v>
       </c>
       <c r="P5">
-        <v>0.8014370254606795</v>
+        <v>0.2681199229911799</v>
       </c>
       <c r="Q5">
-        <v>0.6279128878933333</v>
+        <v>1.822139477454667</v>
       </c>
       <c r="R5">
-        <v>5.65121599104</v>
+        <v>16.399255297092</v>
       </c>
       <c r="S5">
-        <v>0.0003466112374785464</v>
+        <v>0.001443590092265042</v>
       </c>
       <c r="T5">
-        <v>0.0003466112374785464</v>
+        <v>0.001443590092265042</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,55 +782,55 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.1349983333333333</v>
+        <v>1.448602</v>
       </c>
       <c r="H6">
-        <v>0.404995</v>
+        <v>4.345806000000001</v>
       </c>
       <c r="I6">
-        <v>0.0004324871779904459</v>
+        <v>0.005384120941704621</v>
       </c>
       <c r="J6">
-        <v>0.0004324871779904459</v>
+        <v>0.005384120941704621</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.069221</v>
+        <v>0.5095113333333333</v>
       </c>
       <c r="N6">
-        <v>0.207663</v>
+        <v>1.528534</v>
       </c>
       <c r="O6">
-        <v>0.0119271390184289</v>
+        <v>0.1086051444938523</v>
       </c>
       <c r="P6">
-        <v>0.0119271390184289</v>
+        <v>0.1086051444938523</v>
       </c>
       <c r="Q6">
-        <v>0.009344719631666666</v>
+        <v>0.7380791364893334</v>
       </c>
       <c r="R6">
-        <v>0.08410247668500001</v>
+        <v>6.642712228404001</v>
       </c>
       <c r="S6">
-        <v>5.158334695580054E-06</v>
+        <v>0.0005847432328462066</v>
       </c>
       <c r="T6">
-        <v>5.158334695580054E-06</v>
+        <v>0.0005847432328462066</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,13 +856,13 @@
         <v>1.448602</v>
       </c>
       <c r="H7">
-        <v>4.345806</v>
+        <v>4.345806000000001</v>
       </c>
       <c r="I7">
-        <v>0.004640811301457914</v>
+        <v>0.005384120941704621</v>
       </c>
       <c r="J7">
-        <v>0.004640811301457913</v>
+        <v>0.005384120941704621</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,33 +871,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.5527786666666666</v>
+        <v>2.924038666666667</v>
       </c>
       <c r="N7">
-        <v>1.658336</v>
+        <v>8.772116</v>
       </c>
       <c r="O7">
-        <v>0.09524664485857044</v>
+        <v>0.6232749325149678</v>
       </c>
       <c r="P7">
-        <v>0.09524664485857044</v>
+        <v>0.6232749325149678</v>
       </c>
       <c r="Q7">
-        <v>0.8007562820906666</v>
+        <v>4.235768260610667</v>
       </c>
       <c r="R7">
-        <v>7.206806538815999</v>
+        <v>38.12191434549601</v>
       </c>
       <c r="S7">
-        <v>0.000442021705885602</v>
+        <v>0.003355787616593372</v>
       </c>
       <c r="T7">
-        <v>0.0004420217058856019</v>
+        <v>0.003355787616593373</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.448602</v>
+        <v>56.20026033333333</v>
       </c>
       <c r="H8">
-        <v>4.345806</v>
+        <v>168.600781</v>
       </c>
       <c r="I8">
-        <v>0.004640811301457914</v>
+        <v>0.2088834604604656</v>
       </c>
       <c r="J8">
-        <v>0.004640811301457913</v>
+        <v>0.2088834604604657</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,43 +933,43 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.5095113333333333</v>
+        <v>1.257860666666667</v>
       </c>
       <c r="N8">
-        <v>1.528534</v>
+        <v>3.773582</v>
       </c>
       <c r="O8">
-        <v>0.08779145785428895</v>
+        <v>0.2681199229911799</v>
       </c>
       <c r="P8">
-        <v>0.08779145785428895</v>
+        <v>0.2681199229911799</v>
       </c>
       <c r="Q8">
-        <v>0.7380791364893333</v>
+        <v>70.69209692972689</v>
       </c>
       <c r="R8">
-        <v>6.642712228404</v>
+        <v>636.228872367542</v>
       </c>
       <c r="S8">
-        <v>0.0004074235897816503</v>
+        <v>0.05600581733279122</v>
       </c>
       <c r="T8">
-        <v>0.0004074235897816502</v>
+        <v>0.05600581733279124</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
         <v>3</v>
       </c>
@@ -977,51 +977,51 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.448602</v>
+        <v>56.20026033333333</v>
       </c>
       <c r="H9">
-        <v>4.345806</v>
+        <v>168.600781</v>
       </c>
       <c r="I9">
-        <v>0.004640811301457914</v>
+        <v>0.2088834604604656</v>
       </c>
       <c r="J9">
-        <v>0.004640811301457913</v>
+        <v>0.2088834604604657</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.02088</v>
+        <v>0.5095113333333333</v>
       </c>
       <c r="N9">
-        <v>0.06264</v>
+        <v>1.528534</v>
       </c>
       <c r="O9">
-        <v>0.00359773280803218</v>
+        <v>0.1086051444938523</v>
       </c>
       <c r="P9">
-        <v>0.00359773280803218</v>
+        <v>0.1086051444938523</v>
       </c>
       <c r="Q9">
-        <v>0.03024680976</v>
+        <v>28.6346695761171</v>
       </c>
       <c r="R9">
-        <v>0.27222128784</v>
+        <v>257.712026185054</v>
       </c>
       <c r="S9">
-        <v>1.669639907514165E-05</v>
+        <v>0.02268581840568476</v>
       </c>
       <c r="T9">
-        <v>1.669639907514165E-05</v>
+        <v>0.02268581840568476</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.448602</v>
+        <v>56.20026033333333</v>
       </c>
       <c r="H10">
-        <v>4.345806</v>
+        <v>168.600781</v>
       </c>
       <c r="I10">
-        <v>0.004640811301457914</v>
+        <v>0.2088834604604656</v>
       </c>
       <c r="J10">
-        <v>0.004640811301457913</v>
+        <v>0.2088834604604657</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,33 +1057,33 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.651264</v>
+        <v>2.924038666666667</v>
       </c>
       <c r="N10">
-        <v>13.953792</v>
+        <v>8.772116</v>
       </c>
       <c r="O10">
-        <v>0.8014370254606795</v>
+        <v>0.6232749325149678</v>
       </c>
       <c r="P10">
-        <v>0.8014370254606795</v>
+        <v>0.6232749325149678</v>
       </c>
       <c r="Q10">
-        <v>6.737830332928</v>
+        <v>164.3317342913995</v>
       </c>
       <c r="R10">
-        <v>60.640472996352</v>
+        <v>1478.985608622596</v>
       </c>
       <c r="S10">
-        <v>0.003719318005164735</v>
+        <v>0.1301918247219896</v>
       </c>
       <c r="T10">
-        <v>0.003719318005164735</v>
+        <v>0.1301918247219897</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,51 +1101,51 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.448602</v>
+        <v>2.421589666666667</v>
       </c>
       <c r="H11">
-        <v>4.345806</v>
+        <v>7.264769</v>
       </c>
       <c r="I11">
-        <v>0.004640811301457914</v>
+        <v>0.00900049263808521</v>
       </c>
       <c r="J11">
-        <v>0.004640811301457913</v>
+        <v>0.009000492638085212</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.069221</v>
+        <v>1.257860666666667</v>
       </c>
       <c r="N11">
-        <v>0.207663</v>
+        <v>3.773582</v>
       </c>
       <c r="O11">
-        <v>0.0119271390184289</v>
+        <v>0.2681199229911799</v>
       </c>
       <c r="P11">
-        <v>0.0119271390184289</v>
+        <v>0.2681199229911799</v>
       </c>
       <c r="Q11">
-        <v>0.100273679042</v>
+        <v>3.046022392506445</v>
       </c>
       <c r="R11">
-        <v>0.9024631113779999</v>
+        <v>27.414201532558</v>
       </c>
       <c r="S11">
-        <v>5.535160155078451E-05</v>
+        <v>0.002413211393006088</v>
       </c>
       <c r="T11">
-        <v>5.53516015507845E-05</v>
+        <v>0.002413211393006089</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>63.544816</v>
+        <v>2.421589666666667</v>
       </c>
       <c r="H12">
-        <v>190.634448</v>
+        <v>7.264769</v>
       </c>
       <c r="I12">
-        <v>0.2035752402950318</v>
+        <v>0.00900049263808521</v>
       </c>
       <c r="J12">
-        <v>0.2035752402950319</v>
+        <v>0.009000492638085212</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,33 +1181,33 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.5527786666666666</v>
+        <v>0.5095113333333333</v>
       </c>
       <c r="N12">
-        <v>1.658336</v>
+        <v>1.528534</v>
       </c>
       <c r="O12">
-        <v>0.09524664485857044</v>
+        <v>0.1086051444938523</v>
       </c>
       <c r="P12">
-        <v>0.09524664485857044</v>
+        <v>0.1086051444938523</v>
       </c>
       <c r="Q12">
-        <v>35.12621866205867</v>
+        <v>1.233827379849556</v>
       </c>
       <c r="R12">
-        <v>316.1359679585281</v>
+        <v>11.104446418646</v>
       </c>
       <c r="S12">
-        <v>0.01938985861437904</v>
+        <v>0.0009774998034750982</v>
       </c>
       <c r="T12">
-        <v>0.01938985861437904</v>
+        <v>0.0009774998034750985</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,7 +1216,7 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>63.544816</v>
+        <v>2.421589666666667</v>
       </c>
       <c r="H13">
-        <v>190.634448</v>
+        <v>7.264769</v>
       </c>
       <c r="I13">
-        <v>0.2035752402950318</v>
+        <v>0.00900049263808521</v>
       </c>
       <c r="J13">
-        <v>0.2035752402950319</v>
+        <v>0.009000492638085212</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,33 +1243,33 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.5095113333333333</v>
+        <v>2.924038666666667</v>
       </c>
       <c r="N13">
-        <v>1.528534</v>
+        <v>8.772116</v>
       </c>
       <c r="O13">
-        <v>0.08779145785428895</v>
+        <v>0.6232749325149678</v>
       </c>
       <c r="P13">
-        <v>0.08779145785428895</v>
+        <v>0.6232749325149678</v>
       </c>
       <c r="Q13">
-        <v>32.37680392658133</v>
+        <v>7.080821820133778</v>
       </c>
       <c r="R13">
-        <v>291.391235339232</v>
+        <v>63.727396381204</v>
       </c>
       <c r="S13">
-        <v>0.01787216712853803</v>
+        <v>0.005609781441604024</v>
       </c>
       <c r="T13">
-        <v>0.01787216712853804</v>
+        <v>0.005609781441604025</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,7 +1278,7 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,51 +1287,51 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>63.544816</v>
+        <v>181.9836886666667</v>
       </c>
       <c r="H14">
-        <v>190.634448</v>
+        <v>545.951066</v>
       </c>
       <c r="I14">
-        <v>0.2035752402950318</v>
+        <v>0.6763915756010649</v>
       </c>
       <c r="J14">
-        <v>0.2035752402950319</v>
+        <v>0.6763915756010649</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.02088</v>
+        <v>1.257860666666667</v>
       </c>
       <c r="N14">
-        <v>0.06264</v>
+        <v>3.773582</v>
       </c>
       <c r="O14">
-        <v>0.00359773280803218</v>
+        <v>0.2681199229911799</v>
       </c>
       <c r="P14">
-        <v>0.00359773280803218</v>
+        <v>0.2681199229911799</v>
       </c>
       <c r="Q14">
-        <v>1.32681575808</v>
+        <v>228.9101239487125</v>
       </c>
       <c r="R14">
-        <v>11.94134182272</v>
+        <v>2060.191115538412</v>
       </c>
       <c r="S14">
-        <v>0.0007324093209124706</v>
+        <v>0.1813540571620404</v>
       </c>
       <c r="T14">
-        <v>0.0007324093209124707</v>
+        <v>0.1813540571620404</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>63.544816</v>
+        <v>181.9836886666667</v>
       </c>
       <c r="H15">
-        <v>190.634448</v>
+        <v>545.951066</v>
       </c>
       <c r="I15">
-        <v>0.2035752402950318</v>
+        <v>0.6763915756010649</v>
       </c>
       <c r="J15">
-        <v>0.2035752402950319</v>
+        <v>0.6763915756010649</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,33 +1367,33 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.651264</v>
+        <v>0.5095113333333333</v>
       </c>
       <c r="N15">
-        <v>13.953792</v>
+        <v>1.528534</v>
       </c>
       <c r="O15">
-        <v>0.8014370254606795</v>
+        <v>0.1086051444938523</v>
       </c>
       <c r="P15">
-        <v>0.8014370254606795</v>
+        <v>0.1086051444938523</v>
       </c>
       <c r="Q15">
-        <v>295.563715047424</v>
+        <v>92.72275185747155</v>
       </c>
       <c r="R15">
-        <v>2660.073435426816</v>
+        <v>834.504766717244</v>
       </c>
       <c r="S15">
-        <v>0.1631527350394934</v>
+        <v>0.07345960480257809</v>
       </c>
       <c r="T15">
-        <v>0.1631527350394934</v>
+        <v>0.07345960480257809</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,7 +1402,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,51 +1411,51 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>63.544816</v>
+        <v>181.9836886666667</v>
       </c>
       <c r="H16">
-        <v>190.634448</v>
+        <v>545.951066</v>
       </c>
       <c r="I16">
-        <v>0.2035752402950318</v>
+        <v>0.6763915756010649</v>
       </c>
       <c r="J16">
-        <v>0.2035752402950319</v>
+        <v>0.6763915756010649</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.069221</v>
+        <v>2.924038666666667</v>
       </c>
       <c r="N16">
-        <v>0.207663</v>
+        <v>8.772116</v>
       </c>
       <c r="O16">
-        <v>0.0119271390184289</v>
+        <v>0.6232749325149678</v>
       </c>
       <c r="P16">
-        <v>0.0119271390184289</v>
+        <v>0.6232749325149678</v>
       </c>
       <c r="Q16">
-        <v>4.398635708336001</v>
+        <v>532.1273423639618</v>
       </c>
       <c r="R16">
-        <v>39.58772137502401</v>
+        <v>4789.146081275656</v>
       </c>
       <c r="S16">
-        <v>0.002428070191708914</v>
+        <v>0.4215779136364465</v>
       </c>
       <c r="T16">
-        <v>0.002428070191708914</v>
+        <v>0.4215779136364465</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.406739</v>
+        <v>24.982726</v>
       </c>
       <c r="H17">
-        <v>7.220217</v>
+        <v>74.948178</v>
       </c>
       <c r="I17">
-        <v>0.00771034525070345</v>
+        <v>0.09285505489946065</v>
       </c>
       <c r="J17">
-        <v>0.00771034525070345</v>
+        <v>0.09285505489946067</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,33 +1491,33 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.5527786666666666</v>
+        <v>1.257860666666667</v>
       </c>
       <c r="N17">
-        <v>1.658336</v>
+        <v>3.773582</v>
       </c>
       <c r="O17">
-        <v>0.09524664485857044</v>
+        <v>0.2681199229911799</v>
       </c>
       <c r="P17">
-        <v>0.09524664485857044</v>
+        <v>0.2681199229911799</v>
       </c>
       <c r="Q17">
-        <v>1.330393975434667</v>
+        <v>31.42478838151067</v>
       </c>
       <c r="R17">
-        <v>11.973545778912</v>
+        <v>282.823095433596</v>
       </c>
       <c r="S17">
-        <v>0.0007343845158307167</v>
+        <v>0.02489629016898517</v>
       </c>
       <c r="T17">
-        <v>0.0007343845158307167</v>
+        <v>0.02489629016898518</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.406739</v>
+        <v>24.982726</v>
       </c>
       <c r="H18">
-        <v>7.220217</v>
+        <v>74.948178</v>
       </c>
       <c r="I18">
-        <v>0.00771034525070345</v>
+        <v>0.09285505489946065</v>
       </c>
       <c r="J18">
-        <v>0.00771034525070345</v>
+        <v>0.09285505489946067</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1559,37 +1559,37 @@
         <v>1.528534</v>
       </c>
       <c r="O18">
-        <v>0.08779145785428895</v>
+        <v>0.1086051444938523</v>
       </c>
       <c r="P18">
-        <v>0.08779145785428895</v>
+        <v>0.1086051444938523</v>
       </c>
       <c r="Q18">
-        <v>1.226260796875333</v>
+        <v>12.72898203456133</v>
       </c>
       <c r="R18">
-        <v>11.036347171878</v>
+        <v>114.560838311052</v>
       </c>
       <c r="S18">
-        <v>0.0006769024501191488</v>
+        <v>0.01008453665434051</v>
       </c>
       <c r="T18">
-        <v>0.0006769024501191488</v>
+        <v>0.01008453665434051</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>23</v>
       </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
       <c r="E19">
         <v>3</v>
       </c>
@@ -1597,790 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.406739</v>
+        <v>24.982726</v>
       </c>
       <c r="H19">
-        <v>7.220217</v>
+        <v>74.948178</v>
       </c>
       <c r="I19">
-        <v>0.00771034525070345</v>
+        <v>0.09285505489946065</v>
       </c>
       <c r="J19">
-        <v>0.00771034525070345</v>
+        <v>0.09285505489946067</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.02088</v>
+        <v>2.924038666666667</v>
       </c>
       <c r="N19">
-        <v>0.06264</v>
+        <v>8.772116</v>
       </c>
       <c r="O19">
-        <v>0.00359773280803218</v>
+        <v>0.6232749325149678</v>
       </c>
       <c r="P19">
-        <v>0.00359773280803218</v>
+        <v>0.6232749325149678</v>
       </c>
       <c r="Q19">
-        <v>0.05025271032</v>
+        <v>73.05045682273867</v>
       </c>
       <c r="R19">
-        <v>0.45227439288</v>
+        <v>657.4541114046481</v>
       </c>
       <c r="S19">
-        <v>2.77397620697109E-05</v>
+        <v>0.05787422807613497</v>
       </c>
       <c r="T19">
-        <v>2.77397620697109E-05</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>2.406739</v>
-      </c>
-      <c r="H20">
-        <v>7.220217</v>
-      </c>
-      <c r="I20">
-        <v>0.00771034525070345</v>
-      </c>
-      <c r="J20">
-        <v>0.00771034525070345</v>
-      </c>
-      <c r="K20">
-        <v>3</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>4.651264</v>
-      </c>
-      <c r="N20">
-        <v>13.953792</v>
-      </c>
-      <c r="O20">
-        <v>0.8014370254606795</v>
-      </c>
-      <c r="P20">
-        <v>0.8014370254606795</v>
-      </c>
-      <c r="Q20">
-        <v>11.194378468096</v>
-      </c>
-      <c r="R20">
-        <v>100.749406212864</v>
-      </c>
-      <c r="S20">
-        <v>0.00617935616299865</v>
-      </c>
-      <c r="T20">
-        <v>0.00617935616299865</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>2.406739</v>
-      </c>
-      <c r="H21">
-        <v>7.220217</v>
-      </c>
-      <c r="I21">
-        <v>0.00771034525070345</v>
-      </c>
-      <c r="J21">
-        <v>0.00771034525070345</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M21">
-        <v>0.069221</v>
-      </c>
-      <c r="N21">
-        <v>0.207663</v>
-      </c>
-      <c r="O21">
-        <v>0.0119271390184289</v>
-      </c>
-      <c r="P21">
-        <v>0.0119271390184289</v>
-      </c>
-      <c r="Q21">
-        <v>0.166596880319</v>
-      </c>
-      <c r="R21">
-        <v>1.499371922871</v>
-      </c>
-      <c r="S21">
-        <v>9.196235968522311E-05</v>
-      </c>
-      <c r="T21">
-        <v>9.196235968522311E-05</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>164.0922063333333</v>
-      </c>
-      <c r="H22">
-        <v>492.276619</v>
-      </c>
-      <c r="I22">
-        <v>0.5256937141001443</v>
-      </c>
-      <c r="J22">
-        <v>0.5256937141001443</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>0.5527786666666666</v>
-      </c>
-      <c r="N22">
-        <v>1.658336</v>
-      </c>
-      <c r="O22">
-        <v>0.09524664485857044</v>
-      </c>
-      <c r="P22">
-        <v>0.09524664485857044</v>
-      </c>
-      <c r="Q22">
-        <v>90.70667102733155</v>
-      </c>
-      <c r="R22">
-        <v>816.3600392459841</v>
-      </c>
-      <c r="S22">
-        <v>0.05007056249127931</v>
-      </c>
-      <c r="T22">
-        <v>0.05007056249127931</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>164.0922063333333</v>
-      </c>
-      <c r="H23">
-        <v>492.276619</v>
-      </c>
-      <c r="I23">
-        <v>0.5256937141001443</v>
-      </c>
-      <c r="J23">
-        <v>0.5256937141001443</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>0.5095113333333333</v>
-      </c>
-      <c r="N23">
-        <v>1.528534</v>
-      </c>
-      <c r="O23">
-        <v>0.08779145785428895</v>
-      </c>
-      <c r="P23">
-        <v>0.08779145785428895</v>
-      </c>
-      <c r="Q23">
-        <v>83.60683883850511</v>
-      </c>
-      <c r="R23">
-        <v>752.4615495465461</v>
-      </c>
-      <c r="S23">
-        <v>0.04615141754568745</v>
-      </c>
-      <c r="T23">
-        <v>0.04615141754568745</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>164.0922063333333</v>
-      </c>
-      <c r="H24">
-        <v>492.276619</v>
-      </c>
-      <c r="I24">
-        <v>0.5256937141001443</v>
-      </c>
-      <c r="J24">
-        <v>0.5256937141001443</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M24">
-        <v>0.02088</v>
-      </c>
-      <c r="N24">
-        <v>0.06264</v>
-      </c>
-      <c r="O24">
-        <v>0.00359773280803218</v>
-      </c>
-      <c r="P24">
-        <v>0.00359773280803218</v>
-      </c>
-      <c r="Q24">
-        <v>3.42624526824</v>
-      </c>
-      <c r="R24">
-        <v>30.83620741416</v>
-      </c>
-      <c r="S24">
-        <v>0.001891305522194378</v>
-      </c>
-      <c r="T24">
-        <v>0.001891305522194378</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>164.0922063333333</v>
-      </c>
-      <c r="H25">
-        <v>492.276619</v>
-      </c>
-      <c r="I25">
-        <v>0.5256937141001443</v>
-      </c>
-      <c r="J25">
-        <v>0.5256937141001443</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>4.651264</v>
-      </c>
-      <c r="N25">
-        <v>13.953792</v>
-      </c>
-      <c r="O25">
-        <v>0.8014370254606795</v>
-      </c>
-      <c r="P25">
-        <v>0.8014370254606795</v>
-      </c>
-      <c r="Q25">
-        <v>763.2361719988054</v>
-      </c>
-      <c r="R25">
-        <v>6869.125547989249</v>
-      </c>
-      <c r="S25">
-        <v>0.4213104065317965</v>
-      </c>
-      <c r="T25">
-        <v>0.4213104065317965</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" t="s">
-        <v>25</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>164.0922063333333</v>
-      </c>
-      <c r="H26">
-        <v>492.276619</v>
-      </c>
-      <c r="I26">
-        <v>0.5256937141001443</v>
-      </c>
-      <c r="J26">
-        <v>0.5256937141001443</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M26">
-        <v>0.069221</v>
-      </c>
-      <c r="N26">
-        <v>0.207663</v>
-      </c>
-      <c r="O26">
-        <v>0.0119271390184289</v>
-      </c>
-      <c r="P26">
-        <v>0.0119271390184289</v>
-      </c>
-      <c r="Q26">
-        <v>11.35862661459967</v>
-      </c>
-      <c r="R26">
-        <v>102.227639531397</v>
-      </c>
-      <c r="S26">
-        <v>0.00627002200918664</v>
-      </c>
-      <c r="T26">
-        <v>0.00627002200918664</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27">
-        <v>3</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>80.516767</v>
-      </c>
-      <c r="H27">
-        <v>241.550301</v>
-      </c>
-      <c r="I27">
-        <v>0.257947401874672</v>
-      </c>
-      <c r="J27">
-        <v>0.257947401874672</v>
-      </c>
-      <c r="K27">
-        <v>3</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>0.5527786666666666</v>
-      </c>
-      <c r="N27">
-        <v>1.658336</v>
-      </c>
-      <c r="O27">
-        <v>0.09524664485857044</v>
-      </c>
-      <c r="P27">
-        <v>0.09524664485857044</v>
-      </c>
-      <c r="Q27">
-        <v>44.50795110657067</v>
-      </c>
-      <c r="R27">
-        <v>400.571559959136</v>
-      </c>
-      <c r="S27">
-        <v>0.02456862457854783</v>
-      </c>
-      <c r="T27">
-        <v>0.02456862457854783</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" t="s">
-        <v>21</v>
-      </c>
-      <c r="E28">
-        <v>3</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>80.516767</v>
-      </c>
-      <c r="H28">
-        <v>241.550301</v>
-      </c>
-      <c r="I28">
-        <v>0.257947401874672</v>
-      </c>
-      <c r="J28">
-        <v>0.257947401874672</v>
-      </c>
-      <c r="K28">
-        <v>3</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28">
-        <v>0.5095113333333333</v>
-      </c>
-      <c r="N28">
-        <v>1.528534</v>
-      </c>
-      <c r="O28">
-        <v>0.08779145785428895</v>
-      </c>
-      <c r="P28">
-        <v>0.08779145785428895</v>
-      </c>
-      <c r="Q28">
-        <v>41.02420530985933</v>
-      </c>
-      <c r="R28">
-        <v>369.217847788734</v>
-      </c>
-      <c r="S28">
-        <v>0.0226455784603036</v>
-      </c>
-      <c r="T28">
-        <v>0.0226455784603036</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29">
-        <v>3</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <v>80.516767</v>
-      </c>
-      <c r="H29">
-        <v>241.550301</v>
-      </c>
-      <c r="I29">
-        <v>0.257947401874672</v>
-      </c>
-      <c r="J29">
-        <v>0.257947401874672</v>
-      </c>
-      <c r="K29">
-        <v>1</v>
-      </c>
-      <c r="L29">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M29">
-        <v>0.02088</v>
-      </c>
-      <c r="N29">
-        <v>0.06264</v>
-      </c>
-      <c r="O29">
-        <v>0.00359773280803218</v>
-      </c>
-      <c r="P29">
-        <v>0.00359773280803218</v>
-      </c>
-      <c r="Q29">
-        <v>1.68119009496</v>
-      </c>
-      <c r="R29">
-        <v>15.13071085464</v>
-      </c>
-      <c r="S29">
-        <v>0.0009280258304711689</v>
-      </c>
-      <c r="T29">
-        <v>0.0009280258304711689</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30">
-        <v>3</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30">
-        <v>80.516767</v>
-      </c>
-      <c r="H30">
-        <v>241.550301</v>
-      </c>
-      <c r="I30">
-        <v>0.257947401874672</v>
-      </c>
-      <c r="J30">
-        <v>0.257947401874672</v>
-      </c>
-      <c r="K30">
-        <v>3</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>4.651264</v>
-      </c>
-      <c r="N30">
-        <v>13.953792</v>
-      </c>
-      <c r="O30">
-        <v>0.8014370254606795</v>
-      </c>
-      <c r="P30">
-        <v>0.8014370254606795</v>
-      </c>
-      <c r="Q30">
-        <v>374.504739743488</v>
-      </c>
-      <c r="R30">
-        <v>3370.542657691392</v>
-      </c>
-      <c r="S30">
-        <v>0.2067285984837477</v>
-      </c>
-      <c r="T30">
-        <v>0.2067285984837477</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>25</v>
-      </c>
-      <c r="B31" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" t="s">
-        <v>25</v>
-      </c>
-      <c r="E31">
-        <v>3</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>80.516767</v>
-      </c>
-      <c r="H31">
-        <v>241.550301</v>
-      </c>
-      <c r="I31">
-        <v>0.257947401874672</v>
-      </c>
-      <c r="J31">
-        <v>0.257947401874672</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M31">
-        <v>0.069221</v>
-      </c>
-      <c r="N31">
-        <v>0.207663</v>
-      </c>
-      <c r="O31">
-        <v>0.0119271390184289</v>
-      </c>
-      <c r="P31">
-        <v>0.0119271390184289</v>
-      </c>
-      <c r="Q31">
-        <v>5.573451128507</v>
-      </c>
-      <c r="R31">
-        <v>50.161060156563</v>
-      </c>
-      <c r="S31">
-        <v>0.003076574521601762</v>
-      </c>
-      <c r="T31">
-        <v>0.003076574521601762</v>
+        <v>0.05787422807613497</v>
       </c>
     </row>
   </sheetData>
